--- a/recording/mnist_16_subnetworks.xlsx
+++ b/recording/mnist_16_subnetworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20190214OB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wsl_in_win\Tensor_Layer_Neural_Networks\release\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D4AF583-AE9D-484C-AD20-D0B92C23429F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE64607-2DE8-40D7-9F40-28366E225914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mnist" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>subnetwork15</t>
   </si>
   <si>
-    <t>subnetwork16</t>
-  </si>
-  <si>
     <t>Test Loss:</t>
   </si>
   <si>
@@ -94,11 +91,15 @@
     <t>ensemble</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>subnetwork0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1043,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="M597" sqref="M597"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="L628" sqref="L628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,55 +1058,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -6710,58 +6711,58 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
         <v>1</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>2</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>3</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>4</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>5</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>6</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>7</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>8</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>9</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>10</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>11</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>12</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>13</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>14</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>15</v>
-      </c>
-      <c r="R102" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
@@ -12366,10 +12367,10 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" t="s">
         <v>18</v>
-      </c>
-      <c r="B203" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
@@ -13174,10 +13175,10 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -13982,55 +13983,55 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B405" t="s">
+        <v>23</v>
+      </c>
+      <c r="C405" t="s">
         <v>1</v>
       </c>
-      <c r="C405" t="s">
+      <c r="D405" t="s">
         <v>2</v>
       </c>
-      <c r="D405" t="s">
+      <c r="E405" t="s">
         <v>3</v>
       </c>
-      <c r="E405" t="s">
+      <c r="F405" t="s">
         <v>4</v>
       </c>
-      <c r="F405" t="s">
+      <c r="G405" t="s">
         <v>5</v>
       </c>
-      <c r="G405" t="s">
+      <c r="H405" t="s">
         <v>6</v>
       </c>
-      <c r="H405" t="s">
+      <c r="I405" t="s">
         <v>7</v>
       </c>
-      <c r="I405" t="s">
+      <c r="J405" t="s">
         <v>8</v>
       </c>
-      <c r="J405" t="s">
+      <c r="K405" t="s">
         <v>9</v>
       </c>
-      <c r="K405" t="s">
+      <c r="L405" t="s">
         <v>10</v>
       </c>
-      <c r="L405" t="s">
+      <c r="M405" t="s">
         <v>11</v>
       </c>
-      <c r="M405" t="s">
+      <c r="N405" t="s">
         <v>12</v>
       </c>
-      <c r="N405" t="s">
+      <c r="O405" t="s">
         <v>13</v>
       </c>
-      <c r="O405" t="s">
+      <c r="P405" t="s">
         <v>14</v>
       </c>
-      <c r="P405" t="s">
+      <c r="Q405" t="s">
         <v>15</v>
-      </c>
-      <c r="Q405" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.2">
@@ -19335,55 +19336,55 @@
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B506" t="s">
+        <v>23</v>
+      </c>
+      <c r="C506" t="s">
         <v>1</v>
       </c>
-      <c r="C506" t="s">
+      <c r="D506" t="s">
         <v>2</v>
       </c>
-      <c r="D506" t="s">
+      <c r="E506" t="s">
         <v>3</v>
       </c>
-      <c r="E506" t="s">
+      <c r="F506" t="s">
         <v>4</v>
       </c>
-      <c r="F506" t="s">
+      <c r="G506" t="s">
         <v>5</v>
       </c>
-      <c r="G506" t="s">
+      <c r="H506" t="s">
         <v>6</v>
       </c>
-      <c r="H506" t="s">
+      <c r="I506" t="s">
         <v>7</v>
       </c>
-      <c r="I506" t="s">
+      <c r="J506" t="s">
         <v>8</v>
       </c>
-      <c r="J506" t="s">
+      <c r="K506" t="s">
         <v>9</v>
       </c>
-      <c r="K506" t="s">
+      <c r="L506" t="s">
         <v>10</v>
       </c>
-      <c r="L506" t="s">
+      <c r="M506" t="s">
         <v>11</v>
       </c>
-      <c r="M506" t="s">
+      <c r="N506" t="s">
         <v>12</v>
       </c>
-      <c r="N506" t="s">
+      <c r="O506" t="s">
         <v>13</v>
       </c>
-      <c r="O506" t="s">
+      <c r="P506" t="s">
         <v>14</v>
       </c>
-      <c r="P506" t="s">
+      <c r="Q506" t="s">
         <v>15</v>
-      </c>
-      <c r="Q506" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.2">
